--- a/src/HomeWorkOne_20TestCases/AldrinMalakar/8408MI_AldrinTestCases.xlsx
+++ b/src/HomeWorkOne_20TestCases/AldrinMalakar/8408MI_AldrinTestCases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b8876963accdb294/Documents/PIIT QA Selenium/Automation/HomeWorkOne/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldri\IdeaProjects\HomeWorkTeamTwo\src\HomeWorkOne_20TestCases\AldrinMalakar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{46DD0BCC-D95A-4144-8737-20C3BFD3F71D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{832BC995-022F-4603-BE16-DB3F6C7B63EA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7252D7-EDC0-4E70-9360-857E87C86FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31350" yWindow="4815" windowWidth="21600" windowHeight="11355" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case Planning &amp; Execution" sheetId="1" r:id="rId1"/>
@@ -965,24 +965,24 @@
   <dimension ref="A1:EZ912"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="9" customWidth="1"/>
-    <col min="5" max="6" width="30.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="3.33203125" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="14.44140625" style="3"/>
+    <col min="2" max="2" width="7.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="9" customWidth="1"/>
+    <col min="5" max="6" width="30.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:156" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:156" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
         <v>22</v>
@@ -1142,7 +1142,7 @@
       <c r="EY1" s="7"/>
       <c r="EZ1" s="7"/>
     </row>
-    <row r="2" spans="1:156" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:156" s="9" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="13" t="s">
@@ -1186,7 +1186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:156" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:156" s="9" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
       <c r="C4" s="14" t="s">
@@ -1226,7 +1226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:156" s="9" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:156" s="9" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -1236,7 +1236,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:156" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:156" s="9" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="35"/>
       <c r="C7" s="14" t="s">
@@ -1270,7 +1270,7 @@
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
     </row>
-    <row r="9" spans="1:156" s="9" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:156" s="9" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1280,7 +1280,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:156" s="9" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:156" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="33" t="s">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:156" s="9" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:156" s="9" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="22" t="s">
         <v>24</v>
@@ -1320,7 +1320,7 @@
       <c r="G11" s="25"/>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:156" s="9" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:156" s="9" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="22" t="s">
         <v>23</v>
@@ -1336,7 +1336,7 @@
       <c r="G12" s="25"/>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:156" s="9" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:156" s="9" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="22" t="s">
         <v>25</v>
@@ -1350,7 +1350,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:156" s="9" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:156" s="9" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="22" t="s">
         <v>26</v>
@@ -1364,7 +1364,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:156" s="9" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:156" s="9" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="22" t="s">
         <v>27</v>
@@ -1378,7 +1378,7 @@
       <c r="G15" s="25"/>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:156" s="9" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:156" s="9" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="22" t="s">
         <v>28</v>
@@ -1392,7 +1392,7 @@
       <c r="G16" s="25"/>
       <c r="H16" s="23"/>
     </row>
-    <row r="17" spans="1:8" s="9" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="9" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="22" t="s">
         <v>29</v>
@@ -1406,7 +1406,7 @@
       <c r="G17" s="25"/>
       <c r="H17" s="23"/>
     </row>
-    <row r="18" spans="1:8" s="9" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="9" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="22" t="s">
         <v>30</v>
@@ -1420,7 +1420,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="23"/>
     </row>
-    <row r="19" spans="1:8" s="9" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="9" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="22" t="s">
         <v>31</v>
@@ -1434,7 +1434,7 @@
       <c r="G19" s="25"/>
       <c r="H19" s="23"/>
     </row>
-    <row r="20" spans="1:8" s="9" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="9" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="22" t="s">
         <v>32</v>
@@ -1448,7 +1448,7 @@
       <c r="G20" s="25"/>
       <c r="H20" s="23"/>
     </row>
-    <row r="21" spans="1:8" s="9" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="9" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="22" t="s">
         <v>33</v>
@@ -1462,7 +1462,7 @@
       <c r="G21" s="25"/>
       <c r="H21" s="23"/>
     </row>
-    <row r="22" spans="1:8" s="9" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="9" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="22" t="s">
         <v>34</v>
@@ -1476,7 +1476,7 @@
       <c r="G22" s="25"/>
       <c r="H22" s="23"/>
     </row>
-    <row r="23" spans="1:8" s="9" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="9" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="22" t="s">
         <v>35</v>
@@ -1490,7 +1490,7 @@
       <c r="G23" s="25"/>
       <c r="H23" s="23"/>
     </row>
-    <row r="24" spans="1:8" s="9" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="9" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="22" t="s">
         <v>36</v>
@@ -1504,7 +1504,7 @@
       <c r="G24" s="25"/>
       <c r="H24" s="23"/>
     </row>
-    <row r="25" spans="1:8" s="9" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="9" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="22" t="s">
         <v>37</v>
@@ -1518,7 +1518,7 @@
       <c r="G25" s="25"/>
       <c r="H25" s="23"/>
     </row>
-    <row r="26" spans="1:8" s="9" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="9" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="22" t="s">
         <v>38</v>
@@ -1532,7 +1532,7 @@
       <c r="G26" s="25"/>
       <c r="H26" s="23"/>
     </row>
-    <row r="27" spans="1:8" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="22" t="s">
         <v>39</v>
@@ -1546,7 +1546,7 @@
       <c r="G27" s="25"/>
       <c r="H27" s="23"/>
     </row>
-    <row r="28" spans="1:8" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="22" t="s">
         <v>40</v>
@@ -1560,7 +1560,7 @@
       <c r="G28" s="25"/>
       <c r="H28" s="23"/>
     </row>
-    <row r="29" spans="1:8" s="9" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="9" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="22" t="s">
         <v>41</v>
@@ -1574,7 +1574,7 @@
       <c r="G29" s="25"/>
       <c r="H29" s="23"/>
     </row>
-    <row r="30" spans="1:8" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="22" t="s">
         <v>42</v>
@@ -1588,7 +1588,7 @@
       <c r="G30" s="25"/>
       <c r="H30" s="23"/>
     </row>
-    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1598,8 +1598,8 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" s="4" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="4" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1609,7 +1609,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1619,7 +1619,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1629,7 +1629,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1639,7 +1639,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1649,7 +1649,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1659,7 +1659,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1669,7 +1669,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1679,7 +1679,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1689,7 +1689,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1699,7 +1699,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1709,7 +1709,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1719,7 +1719,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1729,7 +1729,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1739,7 +1739,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1749,7 +1749,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1759,7 +1759,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1769,7 +1769,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1779,7 +1779,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1789,7 +1789,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1799,7 +1799,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1809,7 +1809,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1819,7 +1819,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1829,7 +1829,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1839,7 +1839,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1849,7 +1849,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1859,7 +1859,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1869,7 +1869,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1879,7 +1879,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1889,7 +1889,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1899,7 +1899,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1909,7 +1909,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1919,7 +1919,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1929,7 +1929,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1939,7 +1939,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1949,7 +1949,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1959,7 +1959,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1969,7 +1969,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1979,7 +1979,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1989,7 +1989,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1999,7 +1999,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2009,7 +2009,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2019,7 +2019,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2029,7 +2029,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2039,7 +2039,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2049,7 +2049,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2059,7 +2059,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2069,7 +2069,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2079,7 +2079,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2089,7 +2089,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2099,7 +2099,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2109,7 +2109,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2119,7 +2119,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2129,7 +2129,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2139,7 +2139,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2149,7 +2149,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2159,7 +2159,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2169,7 +2169,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2179,7 +2179,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2189,7 +2189,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2199,7 +2199,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2209,7 +2209,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2219,7 +2219,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2229,7 +2229,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2239,7 +2239,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2249,7 +2249,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2259,7 +2259,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2269,7 +2269,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2279,7 +2279,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2289,7 +2289,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2299,7 +2299,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2309,7 +2309,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2319,7 +2319,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2329,7 +2329,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2339,7 +2339,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -2349,7 +2349,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -2359,7 +2359,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2369,7 +2369,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2379,7 +2379,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -2389,7 +2389,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -2399,7 +2399,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -2409,7 +2409,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -2419,7 +2419,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -2429,7 +2429,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -2439,7 +2439,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -2449,7 +2449,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -2459,7 +2459,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -2469,7 +2469,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -2479,7 +2479,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -2489,7 +2489,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -2499,7 +2499,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -2509,7 +2509,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -2519,7 +2519,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -2529,7 +2529,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -2539,7 +2539,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -2549,7 +2549,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -2559,7 +2559,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -2569,7 +2569,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -2579,7 +2579,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -2589,7 +2589,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -2599,7 +2599,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -2609,7 +2609,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -2619,7 +2619,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -2629,7 +2629,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -2639,7 +2639,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -2649,7 +2649,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -2659,7 +2659,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -2669,7 +2669,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -2679,7 +2679,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -2689,7 +2689,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -2699,7 +2699,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -2709,7 +2709,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -2719,7 +2719,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -2729,7 +2729,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -2739,7 +2739,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -2749,7 +2749,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -2759,7 +2759,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -2769,7 +2769,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -2779,7 +2779,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -2789,7 +2789,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -2799,7 +2799,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -2809,7 +2809,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -2819,7 +2819,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -2829,7 +2829,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -2839,7 +2839,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -2849,7 +2849,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -2859,7 +2859,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -2869,7 +2869,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -2879,7 +2879,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -2889,7 +2889,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -2899,7 +2899,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -2909,7 +2909,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -2919,7 +2919,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -2929,7 +2929,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -2939,7 +2939,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -2949,7 +2949,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -2959,7 +2959,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -2969,7 +2969,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -2979,7 +2979,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -2989,7 +2989,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -2999,7 +2999,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -3009,7 +3009,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -3019,7 +3019,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -3029,7 +3029,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -3039,7 +3039,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -3049,7 +3049,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -3059,7 +3059,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -3069,7 +3069,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -3079,7 +3079,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -3089,7 +3089,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -3099,7 +3099,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -3109,7 +3109,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -3119,7 +3119,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -3129,7 +3129,7 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -3139,7 +3139,7 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -3149,7 +3149,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -3159,7 +3159,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -3169,7 +3169,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -3179,7 +3179,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -3189,7 +3189,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -3199,7 +3199,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -3209,7 +3209,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -3219,7 +3219,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -3229,7 +3229,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -3239,7 +3239,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -3249,7 +3249,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -3259,7 +3259,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -3269,7 +3269,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -3279,7 +3279,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -3289,7 +3289,7 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -3299,7 +3299,7 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -3309,7 +3309,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -3319,7 +3319,7 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -3329,7 +3329,7 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -3339,7 +3339,7 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -3349,7 +3349,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -3359,7 +3359,7 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -3369,7 +3369,7 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -3379,7 +3379,7 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -3389,7 +3389,7 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -3399,7 +3399,7 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -3409,7 +3409,7 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -3419,7 +3419,7 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -3429,7 +3429,7 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -3439,7 +3439,7 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -3449,7 +3449,7 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -3459,7 +3459,7 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -3469,7 +3469,7 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -3479,7 +3479,7 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -3489,7 +3489,7 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -3499,7 +3499,7 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -3509,7 +3509,7 @@
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
     </row>
-    <row r="224" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -3519,7 +3519,7 @@
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
     </row>
-    <row r="225" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -3529,7 +3529,7 @@
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
     </row>
-    <row r="226" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -3539,7 +3539,7 @@
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
     </row>
-    <row r="227" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -3549,7 +3549,7 @@
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
     </row>
-    <row r="228" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -3559,7 +3559,7 @@
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
     </row>
-    <row r="229" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -3569,7 +3569,7 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
     </row>
-    <row r="230" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -3579,7 +3579,7 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
     </row>
-    <row r="231" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -3589,7 +3589,7 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
     </row>
-    <row r="232" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -3599,7 +3599,7 @@
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
     </row>
-    <row r="233" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -3609,7 +3609,7 @@
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
     </row>
-    <row r="234" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -3619,7 +3619,7 @@
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
     </row>
-    <row r="235" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -3629,7 +3629,7 @@
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
     </row>
-    <row r="236" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -3639,7 +3639,7 @@
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
     </row>
-    <row r="237" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -3649,7 +3649,7 @@
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
     </row>
-    <row r="238" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -3659,7 +3659,7 @@
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
     </row>
-    <row r="239" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -3669,7 +3669,7 @@
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
     </row>
-    <row r="240" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -3679,7 +3679,7 @@
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
     </row>
-    <row r="241" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -3689,7 +3689,7 @@
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
     </row>
-    <row r="242" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -3699,7 +3699,7 @@
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
     </row>
-    <row r="243" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -3709,7 +3709,7 @@
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
     </row>
-    <row r="244" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -3719,7 +3719,7 @@
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
     </row>
-    <row r="245" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -3729,7 +3729,7 @@
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
     </row>
-    <row r="246" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -3739,7 +3739,7 @@
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
     </row>
-    <row r="247" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -3749,7 +3749,7 @@
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
     </row>
-    <row r="248" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -3759,7 +3759,7 @@
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
     </row>
-    <row r="249" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -3769,7 +3769,7 @@
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
     </row>
-    <row r="250" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -3779,7 +3779,7 @@
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
     </row>
-    <row r="251" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -3789,7 +3789,7 @@
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
     </row>
-    <row r="252" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -3799,7 +3799,7 @@
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
     </row>
-    <row r="253" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -3809,7 +3809,7 @@
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
     </row>
-    <row r="254" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -3819,7 +3819,7 @@
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
     </row>
-    <row r="255" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -3829,7 +3829,7 @@
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
     </row>
-    <row r="256" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -3839,7 +3839,7 @@
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
     </row>
-    <row r="257" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -3849,7 +3849,7 @@
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
     </row>
-    <row r="258" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -3859,7 +3859,7 @@
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
     </row>
-    <row r="259" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -3869,7 +3869,7 @@
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
     </row>
-    <row r="260" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -3879,7 +3879,7 @@
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
     </row>
-    <row r="261" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -3889,7 +3889,7 @@
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
     </row>
-    <row r="262" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -3899,7 +3899,7 @@
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
     </row>
-    <row r="263" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -3909,7 +3909,7 @@
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
     </row>
-    <row r="264" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -3919,7 +3919,7 @@
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
     </row>
-    <row r="265" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -3929,7 +3929,7 @@
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
     </row>
-    <row r="266" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -3939,7 +3939,7 @@
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
     </row>
-    <row r="267" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -3949,7 +3949,7 @@
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
     </row>
-    <row r="268" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -3959,7 +3959,7 @@
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
     </row>
-    <row r="269" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -3969,7 +3969,7 @@
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
     </row>
-    <row r="270" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -3979,7 +3979,7 @@
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
     </row>
-    <row r="271" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -3989,7 +3989,7 @@
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
     </row>
-    <row r="272" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -3999,7 +3999,7 @@
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
     </row>
-    <row r="273" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -4009,7 +4009,7 @@
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
     </row>
-    <row r="274" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -4019,7 +4019,7 @@
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
     </row>
-    <row r="275" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -4029,7 +4029,7 @@
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
     </row>
-    <row r="276" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -4039,7 +4039,7 @@
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
     </row>
-    <row r="277" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -4049,7 +4049,7 @@
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
     </row>
-    <row r="278" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -4059,7 +4059,7 @@
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
     </row>
-    <row r="279" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -4069,7 +4069,7 @@
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
     </row>
-    <row r="280" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -4079,7 +4079,7 @@
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
     </row>
-    <row r="281" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -4089,7 +4089,7 @@
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
     </row>
-    <row r="282" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -4099,7 +4099,7 @@
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
     </row>
-    <row r="283" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -4109,7 +4109,7 @@
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
     </row>
-    <row r="284" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -4119,7 +4119,7 @@
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
     </row>
-    <row r="285" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -4129,7 +4129,7 @@
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
     </row>
-    <row r="286" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -4139,7 +4139,7 @@
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
     </row>
-    <row r="287" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -4149,7 +4149,7 @@
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
     </row>
-    <row r="288" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -4159,7 +4159,7 @@
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
     </row>
-    <row r="289" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -4169,7 +4169,7 @@
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
     </row>
-    <row r="290" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -4179,7 +4179,7 @@
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
     </row>
-    <row r="291" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -4189,7 +4189,7 @@
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
     </row>
-    <row r="292" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -4199,7 +4199,7 @@
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
     </row>
-    <row r="293" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -4209,7 +4209,7 @@
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
     </row>
-    <row r="294" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -4219,7 +4219,7 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
     </row>
-    <row r="295" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -4229,7 +4229,7 @@
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
     </row>
-    <row r="296" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -4239,7 +4239,7 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
     </row>
-    <row r="297" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -4249,7 +4249,7 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
     </row>
-    <row r="298" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -4259,7 +4259,7 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
     </row>
-    <row r="299" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -4269,7 +4269,7 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
     </row>
-    <row r="300" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -4279,7 +4279,7 @@
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
     </row>
-    <row r="301" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -4289,7 +4289,7 @@
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
     </row>
-    <row r="302" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -4299,7 +4299,7 @@
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
     </row>
-    <row r="303" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -4309,7 +4309,7 @@
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
     </row>
-    <row r="304" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -4319,7 +4319,7 @@
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
     </row>
-    <row r="305" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -4329,7 +4329,7 @@
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
     </row>
-    <row r="306" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -4339,7 +4339,7 @@
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
     </row>
-    <row r="307" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -4349,7 +4349,7 @@
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
     </row>
-    <row r="308" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -4359,7 +4359,7 @@
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
     </row>
-    <row r="309" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -4369,7 +4369,7 @@
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
     </row>
-    <row r="310" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -4379,7 +4379,7 @@
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
     </row>
-    <row r="311" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -4389,7 +4389,7 @@
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
     </row>
-    <row r="312" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -4399,7 +4399,7 @@
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
     </row>
-    <row r="313" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -4409,7 +4409,7 @@
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
     </row>
-    <row r="314" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -4419,7 +4419,7 @@
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
     </row>
-    <row r="315" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -4429,7 +4429,7 @@
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
     </row>
-    <row r="316" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -4439,7 +4439,7 @@
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
     </row>
-    <row r="317" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -4449,7 +4449,7 @@
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
     </row>
-    <row r="318" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -4459,7 +4459,7 @@
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
     </row>
-    <row r="319" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -4469,7 +4469,7 @@
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
     </row>
-    <row r="320" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -4479,7 +4479,7 @@
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
     </row>
-    <row r="321" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -4489,7 +4489,7 @@
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
     </row>
-    <row r="322" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -4499,7 +4499,7 @@
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
     </row>
-    <row r="323" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -4509,7 +4509,7 @@
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
     </row>
-    <row r="324" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -4519,7 +4519,7 @@
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
     </row>
-    <row r="325" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -4529,7 +4529,7 @@
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
     </row>
-    <row r="326" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -4539,7 +4539,7 @@
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
     </row>
-    <row r="327" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -4549,7 +4549,7 @@
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
     </row>
-    <row r="328" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -4559,7 +4559,7 @@
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
     </row>
-    <row r="329" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -4569,7 +4569,7 @@
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
     </row>
-    <row r="330" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -4579,7 +4579,7 @@
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
     </row>
-    <row r="331" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -4589,7 +4589,7 @@
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
     </row>
-    <row r="332" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -4599,7 +4599,7 @@
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
     </row>
-    <row r="333" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -4609,7 +4609,7 @@
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
     </row>
-    <row r="334" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -4619,7 +4619,7 @@
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
     </row>
-    <row r="335" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -4629,7 +4629,7 @@
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
     </row>
-    <row r="336" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -4639,7 +4639,7 @@
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
     </row>
-    <row r="337" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -4649,7 +4649,7 @@
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
     </row>
-    <row r="338" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -4659,7 +4659,7 @@
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
     </row>
-    <row r="339" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -4669,7 +4669,7 @@
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
     </row>
-    <row r="340" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -4679,7 +4679,7 @@
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
     </row>
-    <row r="341" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -4689,7 +4689,7 @@
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
     </row>
-    <row r="342" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -4699,7 +4699,7 @@
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
     </row>
-    <row r="343" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -4709,7 +4709,7 @@
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
     </row>
-    <row r="344" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -4719,7 +4719,7 @@
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
     </row>
-    <row r="345" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -4729,7 +4729,7 @@
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
     </row>
-    <row r="346" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -4739,7 +4739,7 @@
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
     </row>
-    <row r="347" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -4749,7 +4749,7 @@
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
     </row>
-    <row r="348" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -4759,7 +4759,7 @@
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
     </row>
-    <row r="349" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -4769,7 +4769,7 @@
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
     </row>
-    <row r="350" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -4779,7 +4779,7 @@
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
     </row>
-    <row r="351" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -4789,7 +4789,7 @@
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
     </row>
-    <row r="352" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -4799,7 +4799,7 @@
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
     </row>
-    <row r="353" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -4809,7 +4809,7 @@
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
     </row>
-    <row r="354" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -4819,7 +4819,7 @@
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
     </row>
-    <row r="355" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -4829,7 +4829,7 @@
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
     </row>
-    <row r="356" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -4839,7 +4839,7 @@
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
     </row>
-    <row r="357" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -4849,7 +4849,7 @@
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
     </row>
-    <row r="358" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -4859,7 +4859,7 @@
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
     </row>
-    <row r="359" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -4869,7 +4869,7 @@
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
     </row>
-    <row r="360" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -4879,7 +4879,7 @@
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
     </row>
-    <row r="361" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -4889,7 +4889,7 @@
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
     </row>
-    <row r="362" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -4899,7 +4899,7 @@
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
     </row>
-    <row r="363" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -4909,7 +4909,7 @@
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
     </row>
-    <row r="364" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -4919,7 +4919,7 @@
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
     </row>
-    <row r="365" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -4929,7 +4929,7 @@
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
     </row>
-    <row r="366" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -4939,7 +4939,7 @@
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
     </row>
-    <row r="367" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -4949,7 +4949,7 @@
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
     </row>
-    <row r="368" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -4959,7 +4959,7 @@
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
     </row>
-    <row r="369" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -4969,7 +4969,7 @@
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
     </row>
-    <row r="370" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -4979,7 +4979,7 @@
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
     </row>
-    <row r="371" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -4989,7 +4989,7 @@
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
     </row>
-    <row r="372" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -4999,7 +4999,7 @@
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
     </row>
-    <row r="373" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -5009,7 +5009,7 @@
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
     </row>
-    <row r="374" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -5019,7 +5019,7 @@
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
     </row>
-    <row r="375" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -5029,7 +5029,7 @@
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
     </row>
-    <row r="376" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -5039,7 +5039,7 @@
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
     </row>
-    <row r="377" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -5049,7 +5049,7 @@
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
     </row>
-    <row r="378" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -5059,7 +5059,7 @@
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
     </row>
-    <row r="379" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -5069,7 +5069,7 @@
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
     </row>
-    <row r="380" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -5079,7 +5079,7 @@
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
     </row>
-    <row r="381" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -5089,7 +5089,7 @@
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
     </row>
-    <row r="382" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -5099,7 +5099,7 @@
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
     </row>
-    <row r="383" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -5109,7 +5109,7 @@
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
     </row>
-    <row r="384" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -5119,7 +5119,7 @@
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
     </row>
-    <row r="385" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -5129,7 +5129,7 @@
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
     </row>
-    <row r="386" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -5139,7 +5139,7 @@
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
     </row>
-    <row r="387" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -5149,7 +5149,7 @@
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
     </row>
-    <row r="388" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -5159,7 +5159,7 @@
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
     </row>
-    <row r="389" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -5169,7 +5169,7 @@
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
     </row>
-    <row r="390" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -5179,7 +5179,7 @@
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
     </row>
-    <row r="391" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -5189,7 +5189,7 @@
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
     </row>
-    <row r="392" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -5199,7 +5199,7 @@
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
     </row>
-    <row r="393" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -5209,7 +5209,7 @@
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
     </row>
-    <row r="394" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -5219,7 +5219,7 @@
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
     </row>
-    <row r="395" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -5229,7 +5229,7 @@
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
     </row>
-    <row r="396" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -5239,7 +5239,7 @@
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
     </row>
-    <row r="397" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -5249,7 +5249,7 @@
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
     </row>
-    <row r="398" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -5259,7 +5259,7 @@
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
     </row>
-    <row r="399" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -5269,7 +5269,7 @@
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
     </row>
-    <row r="400" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -5279,7 +5279,7 @@
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
     </row>
-    <row r="401" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -5289,7 +5289,7 @@
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
     </row>
-    <row r="402" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -5299,7 +5299,7 @@
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
     </row>
-    <row r="403" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -5309,7 +5309,7 @@
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
     </row>
-    <row r="404" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -5319,7 +5319,7 @@
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
     </row>
-    <row r="405" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -5329,7 +5329,7 @@
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
     </row>
-    <row r="406" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -5339,7 +5339,7 @@
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
     </row>
-    <row r="407" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -5349,7 +5349,7 @@
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
     </row>
-    <row r="408" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -5359,7 +5359,7 @@
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
     </row>
-    <row r="409" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -5369,7 +5369,7 @@
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
     </row>
-    <row r="410" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -5379,7 +5379,7 @@
       <c r="G410" s="1"/>
       <c r="H410" s="1"/>
     </row>
-    <row r="411" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -5389,7 +5389,7 @@
       <c r="G411" s="1"/>
       <c r="H411" s="1"/>
     </row>
-    <row r="412" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -5399,7 +5399,7 @@
       <c r="G412" s="1"/>
       <c r="H412" s="1"/>
     </row>
-    <row r="413" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -5409,7 +5409,7 @@
       <c r="G413" s="1"/>
       <c r="H413" s="1"/>
     </row>
-    <row r="414" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -5419,7 +5419,7 @@
       <c r="G414" s="1"/>
       <c r="H414" s="1"/>
     </row>
-    <row r="415" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -5429,7 +5429,7 @@
       <c r="G415" s="1"/>
       <c r="H415" s="1"/>
     </row>
-    <row r="416" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -5439,7 +5439,7 @@
       <c r="G416" s="1"/>
       <c r="H416" s="1"/>
     </row>
-    <row r="417" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -5449,7 +5449,7 @@
       <c r="G417" s="1"/>
       <c r="H417" s="1"/>
     </row>
-    <row r="418" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -5459,7 +5459,7 @@
       <c r="G418" s="1"/>
       <c r="H418" s="1"/>
     </row>
-    <row r="419" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -5469,7 +5469,7 @@
       <c r="G419" s="1"/>
       <c r="H419" s="1"/>
     </row>
-    <row r="420" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -5479,7 +5479,7 @@
       <c r="G420" s="1"/>
       <c r="H420" s="1"/>
     </row>
-    <row r="421" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -5489,7 +5489,7 @@
       <c r="G421" s="1"/>
       <c r="H421" s="1"/>
     </row>
-    <row r="422" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -5499,7 +5499,7 @@
       <c r="G422" s="1"/>
       <c r="H422" s="1"/>
     </row>
-    <row r="423" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -5509,7 +5509,7 @@
       <c r="G423" s="1"/>
       <c r="H423" s="1"/>
     </row>
-    <row r="424" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -5519,7 +5519,7 @@
       <c r="G424" s="1"/>
       <c r="H424" s="1"/>
     </row>
-    <row r="425" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -5529,7 +5529,7 @@
       <c r="G425" s="1"/>
       <c r="H425" s="1"/>
     </row>
-    <row r="426" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -5539,7 +5539,7 @@
       <c r="G426" s="1"/>
       <c r="H426" s="1"/>
     </row>
-    <row r="427" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -5549,7 +5549,7 @@
       <c r="G427" s="1"/>
       <c r="H427" s="1"/>
     </row>
-    <row r="428" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -5559,7 +5559,7 @@
       <c r="G428" s="1"/>
       <c r="H428" s="1"/>
     </row>
-    <row r="429" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -5569,7 +5569,7 @@
       <c r="G429" s="1"/>
       <c r="H429" s="1"/>
     </row>
-    <row r="430" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -5579,7 +5579,7 @@
       <c r="G430" s="1"/>
       <c r="H430" s="1"/>
     </row>
-    <row r="431" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -5589,7 +5589,7 @@
       <c r="G431" s="1"/>
       <c r="H431" s="1"/>
     </row>
-    <row r="432" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -5599,7 +5599,7 @@
       <c r="G432" s="1"/>
       <c r="H432" s="1"/>
     </row>
-    <row r="433" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -5609,7 +5609,7 @@
       <c r="G433" s="1"/>
       <c r="H433" s="1"/>
     </row>
-    <row r="434" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -5619,7 +5619,7 @@
       <c r="G434" s="1"/>
       <c r="H434" s="1"/>
     </row>
-    <row r="435" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -5629,7 +5629,7 @@
       <c r="G435" s="1"/>
       <c r="H435" s="1"/>
     </row>
-    <row r="436" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -5639,7 +5639,7 @@
       <c r="G436" s="1"/>
       <c r="H436" s="1"/>
     </row>
-    <row r="437" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -5649,7 +5649,7 @@
       <c r="G437" s="1"/>
       <c r="H437" s="1"/>
     </row>
-    <row r="438" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -5659,7 +5659,7 @@
       <c r="G438" s="1"/>
       <c r="H438" s="1"/>
     </row>
-    <row r="439" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -5669,7 +5669,7 @@
       <c r="G439" s="1"/>
       <c r="H439" s="1"/>
     </row>
-    <row r="440" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -5679,7 +5679,7 @@
       <c r="G440" s="1"/>
       <c r="H440" s="1"/>
     </row>
-    <row r="441" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -5689,7 +5689,7 @@
       <c r="G441" s="1"/>
       <c r="H441" s="1"/>
     </row>
-    <row r="442" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -5699,7 +5699,7 @@
       <c r="G442" s="1"/>
       <c r="H442" s="1"/>
     </row>
-    <row r="443" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -5709,7 +5709,7 @@
       <c r="G443" s="1"/>
       <c r="H443" s="1"/>
     </row>
-    <row r="444" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -5719,7 +5719,7 @@
       <c r="G444" s="1"/>
       <c r="H444" s="1"/>
     </row>
-    <row r="445" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -5729,7 +5729,7 @@
       <c r="G445" s="1"/>
       <c r="H445" s="1"/>
     </row>
-    <row r="446" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -5739,7 +5739,7 @@
       <c r="G446" s="1"/>
       <c r="H446" s="1"/>
     </row>
-    <row r="447" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -5749,7 +5749,7 @@
       <c r="G447" s="1"/>
       <c r="H447" s="1"/>
     </row>
-    <row r="448" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -5759,7 +5759,7 @@
       <c r="G448" s="1"/>
       <c r="H448" s="1"/>
     </row>
-    <row r="449" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -5769,7 +5769,7 @@
       <c r="G449" s="1"/>
       <c r="H449" s="1"/>
     </row>
-    <row r="450" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -5779,7 +5779,7 @@
       <c r="G450" s="1"/>
       <c r="H450" s="1"/>
     </row>
-    <row r="451" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -5789,7 +5789,7 @@
       <c r="G451" s="1"/>
       <c r="H451" s="1"/>
     </row>
-    <row r="452" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -5799,7 +5799,7 @@
       <c r="G452" s="1"/>
       <c r="H452" s="1"/>
     </row>
-    <row r="453" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -5809,7 +5809,7 @@
       <c r="G453" s="1"/>
       <c r="H453" s="1"/>
     </row>
-    <row r="454" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -5819,7 +5819,7 @@
       <c r="G454" s="1"/>
       <c r="H454" s="1"/>
     </row>
-    <row r="455" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -5829,7 +5829,7 @@
       <c r="G455" s="1"/>
       <c r="H455" s="1"/>
     </row>
-    <row r="456" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -5839,7 +5839,7 @@
       <c r="G456" s="1"/>
       <c r="H456" s="1"/>
     </row>
-    <row r="457" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -5849,7 +5849,7 @@
       <c r="G457" s="1"/>
       <c r="H457" s="1"/>
     </row>
-    <row r="458" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -5859,7 +5859,7 @@
       <c r="G458" s="1"/>
       <c r="H458" s="1"/>
     </row>
-    <row r="459" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -5869,7 +5869,7 @@
       <c r="G459" s="1"/>
       <c r="H459" s="1"/>
     </row>
-    <row r="460" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -5879,7 +5879,7 @@
       <c r="G460" s="1"/>
       <c r="H460" s="1"/>
     </row>
-    <row r="461" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -5889,7 +5889,7 @@
       <c r="G461" s="1"/>
       <c r="H461" s="1"/>
     </row>
-    <row r="462" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -5899,7 +5899,7 @@
       <c r="G462" s="1"/>
       <c r="H462" s="1"/>
     </row>
-    <row r="463" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -5909,7 +5909,7 @@
       <c r="G463" s="1"/>
       <c r="H463" s="1"/>
     </row>
-    <row r="464" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -5919,7 +5919,7 @@
       <c r="G464" s="1"/>
       <c r="H464" s="1"/>
     </row>
-    <row r="465" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -5929,7 +5929,7 @@
       <c r="G465" s="1"/>
       <c r="H465" s="1"/>
     </row>
-    <row r="466" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -5939,7 +5939,7 @@
       <c r="G466" s="1"/>
       <c r="H466" s="1"/>
     </row>
-    <row r="467" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -5949,7 +5949,7 @@
       <c r="G467" s="1"/>
       <c r="H467" s="1"/>
     </row>
-    <row r="468" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -5959,7 +5959,7 @@
       <c r="G468" s="1"/>
       <c r="H468" s="1"/>
     </row>
-    <row r="469" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -5969,7 +5969,7 @@
       <c r="G469" s="1"/>
       <c r="H469" s="1"/>
     </row>
-    <row r="470" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -5979,7 +5979,7 @@
       <c r="G470" s="1"/>
       <c r="H470" s="1"/>
     </row>
-    <row r="471" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -5989,7 +5989,7 @@
       <c r="G471" s="1"/>
       <c r="H471" s="1"/>
     </row>
-    <row r="472" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -5999,7 +5999,7 @@
       <c r="G472" s="1"/>
       <c r="H472" s="1"/>
     </row>
-    <row r="473" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -6009,7 +6009,7 @@
       <c r="G473" s="1"/>
       <c r="H473" s="1"/>
     </row>
-    <row r="474" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -6019,7 +6019,7 @@
       <c r="G474" s="1"/>
       <c r="H474" s="1"/>
     </row>
-    <row r="475" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -6029,7 +6029,7 @@
       <c r="G475" s="1"/>
       <c r="H475" s="1"/>
     </row>
-    <row r="476" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -6039,7 +6039,7 @@
       <c r="G476" s="1"/>
       <c r="H476" s="1"/>
     </row>
-    <row r="477" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -6049,7 +6049,7 @@
       <c r="G477" s="1"/>
       <c r="H477" s="1"/>
     </row>
-    <row r="478" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -6059,7 +6059,7 @@
       <c r="G478" s="1"/>
       <c r="H478" s="1"/>
     </row>
-    <row r="479" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -6069,7 +6069,7 @@
       <c r="G479" s="1"/>
       <c r="H479" s="1"/>
     </row>
-    <row r="480" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -6079,7 +6079,7 @@
       <c r="G480" s="1"/>
       <c r="H480" s="1"/>
     </row>
-    <row r="481" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -6089,7 +6089,7 @@
       <c r="G481" s="1"/>
       <c r="H481" s="1"/>
     </row>
-    <row r="482" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -6099,7 +6099,7 @@
       <c r="G482" s="1"/>
       <c r="H482" s="1"/>
     </row>
-    <row r="483" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -6109,7 +6109,7 @@
       <c r="G483" s="1"/>
       <c r="H483" s="1"/>
     </row>
-    <row r="484" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -6119,7 +6119,7 @@
       <c r="G484" s="1"/>
       <c r="H484" s="1"/>
     </row>
-    <row r="485" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -6129,7 +6129,7 @@
       <c r="G485" s="1"/>
       <c r="H485" s="1"/>
     </row>
-    <row r="486" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -6139,7 +6139,7 @@
       <c r="G486" s="1"/>
       <c r="H486" s="1"/>
     </row>
-    <row r="487" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -6149,7 +6149,7 @@
       <c r="G487" s="1"/>
       <c r="H487" s="1"/>
     </row>
-    <row r="488" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -6159,7 +6159,7 @@
       <c r="G488" s="1"/>
       <c r="H488" s="1"/>
     </row>
-    <row r="489" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -6169,7 +6169,7 @@
       <c r="G489" s="1"/>
       <c r="H489" s="1"/>
     </row>
-    <row r="490" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -6179,7 +6179,7 @@
       <c r="G490" s="1"/>
       <c r="H490" s="1"/>
     </row>
-    <row r="491" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -6189,7 +6189,7 @@
       <c r="G491" s="1"/>
       <c r="H491" s="1"/>
     </row>
-    <row r="492" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -6199,7 +6199,7 @@
       <c r="G492" s="1"/>
       <c r="H492" s="1"/>
     </row>
-    <row r="493" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -6209,7 +6209,7 @@
       <c r="G493" s="1"/>
       <c r="H493" s="1"/>
     </row>
-    <row r="494" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -6219,7 +6219,7 @@
       <c r="G494" s="1"/>
       <c r="H494" s="1"/>
     </row>
-    <row r="495" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -6229,7 +6229,7 @@
       <c r="G495" s="1"/>
       <c r="H495" s="1"/>
     </row>
-    <row r="496" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -6239,7 +6239,7 @@
       <c r="G496" s="1"/>
       <c r="H496" s="1"/>
     </row>
-    <row r="497" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -6249,7 +6249,7 @@
       <c r="G497" s="1"/>
       <c r="H497" s="1"/>
     </row>
-    <row r="498" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -6259,7 +6259,7 @@
       <c r="G498" s="1"/>
       <c r="H498" s="1"/>
     </row>
-    <row r="499" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -6269,7 +6269,7 @@
       <c r="G499" s="1"/>
       <c r="H499" s="1"/>
     </row>
-    <row r="500" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -6279,7 +6279,7 @@
       <c r="G500" s="1"/>
       <c r="H500" s="1"/>
     </row>
-    <row r="501" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -6289,7 +6289,7 @@
       <c r="G501" s="1"/>
       <c r="H501" s="1"/>
     </row>
-    <row r="502" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -6299,7 +6299,7 @@
       <c r="G502" s="1"/>
       <c r="H502" s="1"/>
     </row>
-    <row r="503" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -6309,7 +6309,7 @@
       <c r="G503" s="1"/>
       <c r="H503" s="1"/>
     </row>
-    <row r="504" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -6319,7 +6319,7 @@
       <c r="G504" s="1"/>
       <c r="H504" s="1"/>
     </row>
-    <row r="505" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -6329,7 +6329,7 @@
       <c r="G505" s="1"/>
       <c r="H505" s="1"/>
     </row>
-    <row r="506" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -6339,7 +6339,7 @@
       <c r="G506" s="1"/>
       <c r="H506" s="1"/>
     </row>
-    <row r="507" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -6349,7 +6349,7 @@
       <c r="G507" s="1"/>
       <c r="H507" s="1"/>
     </row>
-    <row r="508" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -6359,7 +6359,7 @@
       <c r="G508" s="1"/>
       <c r="H508" s="1"/>
     </row>
-    <row r="509" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -6369,7 +6369,7 @@
       <c r="G509" s="1"/>
       <c r="H509" s="1"/>
     </row>
-    <row r="510" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -6379,7 +6379,7 @@
       <c r="G510" s="1"/>
       <c r="H510" s="1"/>
     </row>
-    <row r="511" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -6389,7 +6389,7 @@
       <c r="G511" s="1"/>
       <c r="H511" s="1"/>
     </row>
-    <row r="512" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -6399,7 +6399,7 @@
       <c r="G512" s="1"/>
       <c r="H512" s="1"/>
     </row>
-    <row r="513" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -6409,7 +6409,7 @@
       <c r="G513" s="1"/>
       <c r="H513" s="1"/>
     </row>
-    <row r="514" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -6419,7 +6419,7 @@
       <c r="G514" s="1"/>
       <c r="H514" s="1"/>
     </row>
-    <row r="515" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -6429,7 +6429,7 @@
       <c r="G515" s="1"/>
       <c r="H515" s="1"/>
     </row>
-    <row r="516" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -6439,7 +6439,7 @@
       <c r="G516" s="1"/>
       <c r="H516" s="1"/>
     </row>
-    <row r="517" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -6449,7 +6449,7 @@
       <c r="G517" s="1"/>
       <c r="H517" s="1"/>
     </row>
-    <row r="518" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -6459,7 +6459,7 @@
       <c r="G518" s="1"/>
       <c r="H518" s="1"/>
     </row>
-    <row r="519" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -6469,7 +6469,7 @@
       <c r="G519" s="1"/>
       <c r="H519" s="1"/>
     </row>
-    <row r="520" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -6479,7 +6479,7 @@
       <c r="G520" s="1"/>
       <c r="H520" s="1"/>
     </row>
-    <row r="521" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -6489,7 +6489,7 @@
       <c r="G521" s="1"/>
       <c r="H521" s="1"/>
     </row>
-    <row r="522" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -6499,7 +6499,7 @@
       <c r="G522" s="1"/>
       <c r="H522" s="1"/>
     </row>
-    <row r="523" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -6509,7 +6509,7 @@
       <c r="G523" s="1"/>
       <c r="H523" s="1"/>
     </row>
-    <row r="524" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -6519,7 +6519,7 @@
       <c r="G524" s="1"/>
       <c r="H524" s="1"/>
     </row>
-    <row r="525" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -6529,7 +6529,7 @@
       <c r="G525" s="1"/>
       <c r="H525" s="1"/>
     </row>
-    <row r="526" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -6539,7 +6539,7 @@
       <c r="G526" s="1"/>
       <c r="H526" s="1"/>
     </row>
-    <row r="527" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -6549,7 +6549,7 @@
       <c r="G527" s="1"/>
       <c r="H527" s="1"/>
     </row>
-    <row r="528" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -6559,7 +6559,7 @@
       <c r="G528" s="1"/>
       <c r="H528" s="1"/>
     </row>
-    <row r="529" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -6569,7 +6569,7 @@
       <c r="G529" s="1"/>
       <c r="H529" s="1"/>
     </row>
-    <row r="530" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -6579,7 +6579,7 @@
       <c r="G530" s="1"/>
       <c r="H530" s="1"/>
     </row>
-    <row r="531" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -6589,7 +6589,7 @@
       <c r="G531" s="1"/>
       <c r="H531" s="1"/>
     </row>
-    <row r="532" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -6599,7 +6599,7 @@
       <c r="G532" s="1"/>
       <c r="H532" s="1"/>
     </row>
-    <row r="533" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -6609,7 +6609,7 @@
       <c r="G533" s="1"/>
       <c r="H533" s="1"/>
     </row>
-    <row r="534" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -6619,7 +6619,7 @@
       <c r="G534" s="1"/>
       <c r="H534" s="1"/>
     </row>
-    <row r="535" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -6629,7 +6629,7 @@
       <c r="G535" s="1"/>
       <c r="H535" s="1"/>
     </row>
-    <row r="536" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -6639,7 +6639,7 @@
       <c r="G536" s="1"/>
       <c r="H536" s="1"/>
     </row>
-    <row r="537" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -6649,7 +6649,7 @@
       <c r="G537" s="1"/>
       <c r="H537" s="1"/>
     </row>
-    <row r="538" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -6659,7 +6659,7 @@
       <c r="G538" s="1"/>
       <c r="H538" s="1"/>
     </row>
-    <row r="539" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -6669,7 +6669,7 @@
       <c r="G539" s="1"/>
       <c r="H539" s="1"/>
     </row>
-    <row r="540" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -6679,7 +6679,7 @@
       <c r="G540" s="1"/>
       <c r="H540" s="1"/>
     </row>
-    <row r="541" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -6689,7 +6689,7 @@
       <c r="G541" s="1"/>
       <c r="H541" s="1"/>
     </row>
-    <row r="542" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -6699,7 +6699,7 @@
       <c r="G542" s="1"/>
       <c r="H542" s="1"/>
     </row>
-    <row r="543" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -6709,7 +6709,7 @@
       <c r="G543" s="1"/>
       <c r="H543" s="1"/>
     </row>
-    <row r="544" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -6719,7 +6719,7 @@
       <c r="G544" s="1"/>
       <c r="H544" s="1"/>
     </row>
-    <row r="545" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -6729,7 +6729,7 @@
       <c r="G545" s="1"/>
       <c r="H545" s="1"/>
     </row>
-    <row r="546" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -6739,7 +6739,7 @@
       <c r="G546" s="1"/>
       <c r="H546" s="1"/>
     </row>
-    <row r="547" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -6749,7 +6749,7 @@
       <c r="G547" s="1"/>
       <c r="H547" s="1"/>
     </row>
-    <row r="548" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -6759,7 +6759,7 @@
       <c r="G548" s="1"/>
       <c r="H548" s="1"/>
     </row>
-    <row r="549" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -6769,7 +6769,7 @@
       <c r="G549" s="1"/>
       <c r="H549" s="1"/>
     </row>
-    <row r="550" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -6779,7 +6779,7 @@
       <c r="G550" s="1"/>
       <c r="H550" s="1"/>
     </row>
-    <row r="551" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -6789,7 +6789,7 @@
       <c r="G551" s="1"/>
       <c r="H551" s="1"/>
     </row>
-    <row r="552" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -6799,7 +6799,7 @@
       <c r="G552" s="1"/>
       <c r="H552" s="1"/>
     </row>
-    <row r="553" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -6809,7 +6809,7 @@
       <c r="G553" s="1"/>
       <c r="H553" s="1"/>
     </row>
-    <row r="554" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -6819,7 +6819,7 @@
       <c r="G554" s="1"/>
       <c r="H554" s="1"/>
     </row>
-    <row r="555" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -6829,7 +6829,7 @@
       <c r="G555" s="1"/>
       <c r="H555" s="1"/>
     </row>
-    <row r="556" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -6839,7 +6839,7 @@
       <c r="G556" s="1"/>
       <c r="H556" s="1"/>
     </row>
-    <row r="557" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -6849,7 +6849,7 @@
       <c r="G557" s="1"/>
       <c r="H557" s="1"/>
     </row>
-    <row r="558" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -6859,7 +6859,7 @@
       <c r="G558" s="1"/>
       <c r="H558" s="1"/>
     </row>
-    <row r="559" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -6869,7 +6869,7 @@
       <c r="G559" s="1"/>
       <c r="H559" s="1"/>
     </row>
-    <row r="560" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -6879,7 +6879,7 @@
       <c r="G560" s="1"/>
       <c r="H560" s="1"/>
     </row>
-    <row r="561" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -6889,7 +6889,7 @@
       <c r="G561" s="1"/>
       <c r="H561" s="1"/>
     </row>
-    <row r="562" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -6899,7 +6899,7 @@
       <c r="G562" s="1"/>
       <c r="H562" s="1"/>
     </row>
-    <row r="563" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -6909,7 +6909,7 @@
       <c r="G563" s="1"/>
       <c r="H563" s="1"/>
     </row>
-    <row r="564" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -6919,7 +6919,7 @@
       <c r="G564" s="1"/>
       <c r="H564" s="1"/>
     </row>
-    <row r="565" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -6929,7 +6929,7 @@
       <c r="G565" s="1"/>
       <c r="H565" s="1"/>
     </row>
-    <row r="566" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -6939,7 +6939,7 @@
       <c r="G566" s="1"/>
       <c r="H566" s="1"/>
     </row>
-    <row r="567" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -6949,7 +6949,7 @@
       <c r="G567" s="1"/>
       <c r="H567" s="1"/>
     </row>
-    <row r="568" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -6959,7 +6959,7 @@
       <c r="G568" s="1"/>
       <c r="H568" s="1"/>
     </row>
-    <row r="569" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -6969,7 +6969,7 @@
       <c r="G569" s="1"/>
       <c r="H569" s="1"/>
     </row>
-    <row r="570" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -6979,7 +6979,7 @@
       <c r="G570" s="1"/>
       <c r="H570" s="1"/>
     </row>
-    <row r="571" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -6989,7 +6989,7 @@
       <c r="G571" s="1"/>
       <c r="H571" s="1"/>
     </row>
-    <row r="572" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -6999,7 +6999,7 @@
       <c r="G572" s="1"/>
       <c r="H572" s="1"/>
     </row>
-    <row r="573" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -7009,7 +7009,7 @@
       <c r="G573" s="1"/>
       <c r="H573" s="1"/>
     </row>
-    <row r="574" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -7019,7 +7019,7 @@
       <c r="G574" s="1"/>
       <c r="H574" s="1"/>
     </row>
-    <row r="575" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -7029,7 +7029,7 @@
       <c r="G575" s="1"/>
       <c r="H575" s="1"/>
     </row>
-    <row r="576" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -7039,7 +7039,7 @@
       <c r="G576" s="1"/>
       <c r="H576" s="1"/>
     </row>
-    <row r="577" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -7049,7 +7049,7 @@
       <c r="G577" s="1"/>
       <c r="H577" s="1"/>
     </row>
-    <row r="578" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -7059,7 +7059,7 @@
       <c r="G578" s="1"/>
       <c r="H578" s="1"/>
     </row>
-    <row r="579" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -7069,7 +7069,7 @@
       <c r="G579" s="1"/>
       <c r="H579" s="1"/>
     </row>
-    <row r="580" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -7079,7 +7079,7 @@
       <c r="G580" s="1"/>
       <c r="H580" s="1"/>
     </row>
-    <row r="581" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -7089,7 +7089,7 @@
       <c r="G581" s="1"/>
       <c r="H581" s="1"/>
     </row>
-    <row r="582" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -7099,7 +7099,7 @@
       <c r="G582" s="1"/>
       <c r="H582" s="1"/>
     </row>
-    <row r="583" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -7109,7 +7109,7 @@
       <c r="G583" s="1"/>
       <c r="H583" s="1"/>
     </row>
-    <row r="584" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -7119,7 +7119,7 @@
       <c r="G584" s="1"/>
       <c r="H584" s="1"/>
     </row>
-    <row r="585" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -7129,7 +7129,7 @@
       <c r="G585" s="1"/>
       <c r="H585" s="1"/>
     </row>
-    <row r="586" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -7139,7 +7139,7 @@
       <c r="G586" s="1"/>
       <c r="H586" s="1"/>
     </row>
-    <row r="587" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -7149,7 +7149,7 @@
       <c r="G587" s="1"/>
       <c r="H587" s="1"/>
     </row>
-    <row r="588" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -7159,7 +7159,7 @@
       <c r="G588" s="1"/>
       <c r="H588" s="1"/>
     </row>
-    <row r="589" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -7169,7 +7169,7 @@
       <c r="G589" s="1"/>
       <c r="H589" s="1"/>
     </row>
-    <row r="590" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -7179,7 +7179,7 @@
       <c r="G590" s="1"/>
       <c r="H590" s="1"/>
     </row>
-    <row r="591" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -7189,7 +7189,7 @@
       <c r="G591" s="1"/>
       <c r="H591" s="1"/>
     </row>
-    <row r="592" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -7199,7 +7199,7 @@
       <c r="G592" s="1"/>
       <c r="H592" s="1"/>
     </row>
-    <row r="593" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -7209,7 +7209,7 @@
       <c r="G593" s="1"/>
       <c r="H593" s="1"/>
     </row>
-    <row r="594" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -7219,7 +7219,7 @@
       <c r="G594" s="1"/>
       <c r="H594" s="1"/>
     </row>
-    <row r="595" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -7229,7 +7229,7 @@
       <c r="G595" s="1"/>
       <c r="H595" s="1"/>
     </row>
-    <row r="596" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -7239,7 +7239,7 @@
       <c r="G596" s="1"/>
       <c r="H596" s="1"/>
     </row>
-    <row r="597" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -7249,7 +7249,7 @@
       <c r="G597" s="1"/>
       <c r="H597" s="1"/>
     </row>
-    <row r="598" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -7259,7 +7259,7 @@
       <c r="G598" s="1"/>
       <c r="H598" s="1"/>
     </row>
-    <row r="599" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -7269,7 +7269,7 @@
       <c r="G599" s="1"/>
       <c r="H599" s="1"/>
     </row>
-    <row r="600" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -7279,7 +7279,7 @@
       <c r="G600" s="1"/>
       <c r="H600" s="1"/>
     </row>
-    <row r="601" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -7289,7 +7289,7 @@
       <c r="G601" s="1"/>
       <c r="H601" s="1"/>
     </row>
-    <row r="602" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -7299,7 +7299,7 @@
       <c r="G602" s="1"/>
       <c r="H602" s="1"/>
     </row>
-    <row r="603" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -7309,7 +7309,7 @@
       <c r="G603" s="1"/>
       <c r="H603" s="1"/>
     </row>
-    <row r="604" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -7319,7 +7319,7 @@
       <c r="G604" s="1"/>
       <c r="H604" s="1"/>
     </row>
-    <row r="605" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -7329,7 +7329,7 @@
       <c r="G605" s="1"/>
       <c r="H605" s="1"/>
     </row>
-    <row r="606" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -7339,7 +7339,7 @@
       <c r="G606" s="1"/>
       <c r="H606" s="1"/>
     </row>
-    <row r="607" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -7349,7 +7349,7 @@
       <c r="G607" s="1"/>
       <c r="H607" s="1"/>
     </row>
-    <row r="608" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -7359,7 +7359,7 @@
       <c r="G608" s="1"/>
       <c r="H608" s="1"/>
     </row>
-    <row r="609" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -7369,7 +7369,7 @@
       <c r="G609" s="1"/>
       <c r="H609" s="1"/>
     </row>
-    <row r="610" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -7379,7 +7379,7 @@
       <c r="G610" s="1"/>
       <c r="H610" s="1"/>
     </row>
-    <row r="611" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -7389,7 +7389,7 @@
       <c r="G611" s="1"/>
       <c r="H611" s="1"/>
     </row>
-    <row r="612" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -7399,7 +7399,7 @@
       <c r="G612" s="1"/>
       <c r="H612" s="1"/>
     </row>
-    <row r="613" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -7409,7 +7409,7 @@
       <c r="G613" s="1"/>
       <c r="H613" s="1"/>
     </row>
-    <row r="614" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -7419,7 +7419,7 @@
       <c r="G614" s="1"/>
       <c r="H614" s="1"/>
     </row>
-    <row r="615" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -7429,7 +7429,7 @@
       <c r="G615" s="1"/>
       <c r="H615" s="1"/>
     </row>
-    <row r="616" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -7439,7 +7439,7 @@
       <c r="G616" s="1"/>
       <c r="H616" s="1"/>
     </row>
-    <row r="617" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -7449,7 +7449,7 @@
       <c r="G617" s="1"/>
       <c r="H617" s="1"/>
     </row>
-    <row r="618" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -7459,7 +7459,7 @@
       <c r="G618" s="1"/>
       <c r="H618" s="1"/>
     </row>
-    <row r="619" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -7469,7 +7469,7 @@
       <c r="G619" s="1"/>
       <c r="H619" s="1"/>
     </row>
-    <row r="620" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -7479,7 +7479,7 @@
       <c r="G620" s="1"/>
       <c r="H620" s="1"/>
     </row>
-    <row r="621" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -7489,7 +7489,7 @@
       <c r="G621" s="1"/>
       <c r="H621" s="1"/>
     </row>
-    <row r="622" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -7499,7 +7499,7 @@
       <c r="G622" s="1"/>
       <c r="H622" s="1"/>
     </row>
-    <row r="623" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -7509,7 +7509,7 @@
       <c r="G623" s="1"/>
       <c r="H623" s="1"/>
     </row>
-    <row r="624" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -7519,7 +7519,7 @@
       <c r="G624" s="1"/>
       <c r="H624" s="1"/>
     </row>
-    <row r="625" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -7529,7 +7529,7 @@
       <c r="G625" s="1"/>
       <c r="H625" s="1"/>
     </row>
-    <row r="626" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -7539,7 +7539,7 @@
       <c r="G626" s="1"/>
       <c r="H626" s="1"/>
     </row>
-    <row r="627" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -7549,7 +7549,7 @@
       <c r="G627" s="1"/>
       <c r="H627" s="1"/>
     </row>
-    <row r="628" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -7559,7 +7559,7 @@
       <c r="G628" s="1"/>
       <c r="H628" s="1"/>
     </row>
-    <row r="629" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -7569,7 +7569,7 @@
       <c r="G629" s="1"/>
       <c r="H629" s="1"/>
     </row>
-    <row r="630" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -7579,7 +7579,7 @@
       <c r="G630" s="1"/>
       <c r="H630" s="1"/>
     </row>
-    <row r="631" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -7589,7 +7589,7 @@
       <c r="G631" s="1"/>
       <c r="H631" s="1"/>
     </row>
-    <row r="632" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -7599,7 +7599,7 @@
       <c r="G632" s="1"/>
       <c r="H632" s="1"/>
     </row>
-    <row r="633" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -7609,7 +7609,7 @@
       <c r="G633" s="1"/>
       <c r="H633" s="1"/>
     </row>
-    <row r="634" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -7619,7 +7619,7 @@
       <c r="G634" s="1"/>
       <c r="H634" s="1"/>
     </row>
-    <row r="635" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -7629,7 +7629,7 @@
       <c r="G635" s="1"/>
       <c r="H635" s="1"/>
     </row>
-    <row r="636" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -7639,7 +7639,7 @@
       <c r="G636" s="1"/>
       <c r="H636" s="1"/>
     </row>
-    <row r="637" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -7649,7 +7649,7 @@
       <c r="G637" s="1"/>
       <c r="H637" s="1"/>
     </row>
-    <row r="638" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -7659,7 +7659,7 @@
       <c r="G638" s="1"/>
       <c r="H638" s="1"/>
     </row>
-    <row r="639" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -7669,7 +7669,7 @@
       <c r="G639" s="1"/>
       <c r="H639" s="1"/>
     </row>
-    <row r="640" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -7679,7 +7679,7 @@
       <c r="G640" s="1"/>
       <c r="H640" s="1"/>
     </row>
-    <row r="641" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -7689,7 +7689,7 @@
       <c r="G641" s="1"/>
       <c r="H641" s="1"/>
     </row>
-    <row r="642" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -7699,7 +7699,7 @@
       <c r="G642" s="1"/>
       <c r="H642" s="1"/>
     </row>
-    <row r="643" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -7709,7 +7709,7 @@
       <c r="G643" s="1"/>
       <c r="H643" s="1"/>
     </row>
-    <row r="644" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -7719,7 +7719,7 @@
       <c r="G644" s="1"/>
       <c r="H644" s="1"/>
     </row>
-    <row r="645" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -7729,7 +7729,7 @@
       <c r="G645" s="1"/>
       <c r="H645" s="1"/>
     </row>
-    <row r="646" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -7739,7 +7739,7 @@
       <c r="G646" s="1"/>
       <c r="H646" s="1"/>
     </row>
-    <row r="647" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -7749,7 +7749,7 @@
       <c r="G647" s="1"/>
       <c r="H647" s="1"/>
     </row>
-    <row r="648" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -7759,7 +7759,7 @@
       <c r="G648" s="1"/>
       <c r="H648" s="1"/>
     </row>
-    <row r="649" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -7769,7 +7769,7 @@
       <c r="G649" s="1"/>
       <c r="H649" s="1"/>
     </row>
-    <row r="650" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -7779,7 +7779,7 @@
       <c r="G650" s="1"/>
       <c r="H650" s="1"/>
     </row>
-    <row r="651" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -7789,7 +7789,7 @@
       <c r="G651" s="1"/>
       <c r="H651" s="1"/>
     </row>
-    <row r="652" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -7799,7 +7799,7 @@
       <c r="G652" s="1"/>
       <c r="H652" s="1"/>
     </row>
-    <row r="653" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -7809,7 +7809,7 @@
       <c r="G653" s="1"/>
       <c r="H653" s="1"/>
     </row>
-    <row r="654" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -7819,7 +7819,7 @@
       <c r="G654" s="1"/>
       <c r="H654" s="1"/>
     </row>
-    <row r="655" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -7829,7 +7829,7 @@
       <c r="G655" s="1"/>
       <c r="H655" s="1"/>
     </row>
-    <row r="656" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -7839,7 +7839,7 @@
       <c r="G656" s="1"/>
       <c r="H656" s="1"/>
     </row>
-    <row r="657" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -7849,7 +7849,7 @@
       <c r="G657" s="1"/>
       <c r="H657" s="1"/>
     </row>
-    <row r="658" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -7859,7 +7859,7 @@
       <c r="G658" s="1"/>
       <c r="H658" s="1"/>
     </row>
-    <row r="659" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -7869,7 +7869,7 @@
       <c r="G659" s="1"/>
       <c r="H659" s="1"/>
     </row>
-    <row r="660" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -7879,7 +7879,7 @@
       <c r="G660" s="1"/>
       <c r="H660" s="1"/>
     </row>
-    <row r="661" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -7889,7 +7889,7 @@
       <c r="G661" s="1"/>
       <c r="H661" s="1"/>
     </row>
-    <row r="662" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -7899,7 +7899,7 @@
       <c r="G662" s="1"/>
       <c r="H662" s="1"/>
     </row>
-    <row r="663" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -7909,7 +7909,7 @@
       <c r="G663" s="1"/>
       <c r="H663" s="1"/>
     </row>
-    <row r="664" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -7919,7 +7919,7 @@
       <c r="G664" s="1"/>
       <c r="H664" s="1"/>
     </row>
-    <row r="665" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -7929,7 +7929,7 @@
       <c r="G665" s="1"/>
       <c r="H665" s="1"/>
     </row>
-    <row r="666" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -7939,7 +7939,7 @@
       <c r="G666" s="1"/>
       <c r="H666" s="1"/>
     </row>
-    <row r="667" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -7949,7 +7949,7 @@
       <c r="G667" s="1"/>
       <c r="H667" s="1"/>
     </row>
-    <row r="668" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -7959,7 +7959,7 @@
       <c r="G668" s="1"/>
       <c r="H668" s="1"/>
     </row>
-    <row r="669" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -7969,7 +7969,7 @@
       <c r="G669" s="1"/>
       <c r="H669" s="1"/>
     </row>
-    <row r="670" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -7979,7 +7979,7 @@
       <c r="G670" s="1"/>
       <c r="H670" s="1"/>
     </row>
-    <row r="671" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -7989,7 +7989,7 @@
       <c r="G671" s="1"/>
       <c r="H671" s="1"/>
     </row>
-    <row r="672" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -7999,7 +7999,7 @@
       <c r="G672" s="1"/>
       <c r="H672" s="1"/>
     </row>
-    <row r="673" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -8009,7 +8009,7 @@
       <c r="G673" s="1"/>
       <c r="H673" s="1"/>
     </row>
-    <row r="674" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -8019,7 +8019,7 @@
       <c r="G674" s="1"/>
       <c r="H674" s="1"/>
     </row>
-    <row r="675" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -8029,7 +8029,7 @@
       <c r="G675" s="1"/>
       <c r="H675" s="1"/>
     </row>
-    <row r="676" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -8039,7 +8039,7 @@
       <c r="G676" s="1"/>
       <c r="H676" s="1"/>
     </row>
-    <row r="677" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -8049,7 +8049,7 @@
       <c r="G677" s="1"/>
       <c r="H677" s="1"/>
     </row>
-    <row r="678" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -8059,7 +8059,7 @@
       <c r="G678" s="1"/>
       <c r="H678" s="1"/>
     </row>
-    <row r="679" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -8069,7 +8069,7 @@
       <c r="G679" s="1"/>
       <c r="H679" s="1"/>
     </row>
-    <row r="680" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -8079,7 +8079,7 @@
       <c r="G680" s="1"/>
       <c r="H680" s="1"/>
     </row>
-    <row r="681" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -8089,7 +8089,7 @@
       <c r="G681" s="1"/>
       <c r="H681" s="1"/>
     </row>
-    <row r="682" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -8099,7 +8099,7 @@
       <c r="G682" s="1"/>
       <c r="H682" s="1"/>
     </row>
-    <row r="683" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -8109,7 +8109,7 @@
       <c r="G683" s="1"/>
       <c r="H683" s="1"/>
     </row>
-    <row r="684" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -8119,7 +8119,7 @@
       <c r="G684" s="1"/>
       <c r="H684" s="1"/>
     </row>
-    <row r="685" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -8129,7 +8129,7 @@
       <c r="G685" s="1"/>
       <c r="H685" s="1"/>
     </row>
-    <row r="686" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -8139,7 +8139,7 @@
       <c r="G686" s="1"/>
       <c r="H686" s="1"/>
     </row>
-    <row r="687" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -8149,7 +8149,7 @@
       <c r="G687" s="1"/>
       <c r="H687" s="1"/>
     </row>
-    <row r="688" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -8159,7 +8159,7 @@
       <c r="G688" s="1"/>
       <c r="H688" s="1"/>
     </row>
-    <row r="689" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -8169,7 +8169,7 @@
       <c r="G689" s="1"/>
       <c r="H689" s="1"/>
     </row>
-    <row r="690" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -8179,7 +8179,7 @@
       <c r="G690" s="1"/>
       <c r="H690" s="1"/>
     </row>
-    <row r="691" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -8189,7 +8189,7 @@
       <c r="G691" s="1"/>
       <c r="H691" s="1"/>
     </row>
-    <row r="692" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -8199,7 +8199,7 @@
       <c r="G692" s="1"/>
       <c r="H692" s="1"/>
     </row>
-    <row r="693" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -8209,7 +8209,7 @@
       <c r="G693" s="1"/>
       <c r="H693" s="1"/>
     </row>
-    <row r="694" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -8219,7 +8219,7 @@
       <c r="G694" s="1"/>
       <c r="H694" s="1"/>
     </row>
-    <row r="695" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -8229,7 +8229,7 @@
       <c r="G695" s="1"/>
       <c r="H695" s="1"/>
     </row>
-    <row r="696" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -8239,7 +8239,7 @@
       <c r="G696" s="1"/>
       <c r="H696" s="1"/>
     </row>
-    <row r="697" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -8249,7 +8249,7 @@
       <c r="G697" s="1"/>
       <c r="H697" s="1"/>
     </row>
-    <row r="698" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -8259,7 +8259,7 @@
       <c r="G698" s="1"/>
       <c r="H698" s="1"/>
     </row>
-    <row r="699" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -8269,7 +8269,7 @@
       <c r="G699" s="1"/>
       <c r="H699" s="1"/>
     </row>
-    <row r="700" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -8279,7 +8279,7 @@
       <c r="G700" s="1"/>
       <c r="H700" s="1"/>
     </row>
-    <row r="701" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -8289,7 +8289,7 @@
       <c r="G701" s="1"/>
       <c r="H701" s="1"/>
     </row>
-    <row r="702" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -8299,7 +8299,7 @@
       <c r="G702" s="1"/>
       <c r="H702" s="1"/>
     </row>
-    <row r="703" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -8309,7 +8309,7 @@
       <c r="G703" s="1"/>
       <c r="H703" s="1"/>
     </row>
-    <row r="704" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -8319,7 +8319,7 @@
       <c r="G704" s="1"/>
       <c r="H704" s="1"/>
     </row>
-    <row r="705" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -8329,7 +8329,7 @@
       <c r="G705" s="1"/>
       <c r="H705" s="1"/>
     </row>
-    <row r="706" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -8339,7 +8339,7 @@
       <c r="G706" s="1"/>
       <c r="H706" s="1"/>
     </row>
-    <row r="707" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -8349,7 +8349,7 @@
       <c r="G707" s="1"/>
       <c r="H707" s="1"/>
     </row>
-    <row r="708" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -8359,7 +8359,7 @@
       <c r="G708" s="1"/>
       <c r="H708" s="1"/>
     </row>
-    <row r="709" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -8369,7 +8369,7 @@
       <c r="G709" s="1"/>
       <c r="H709" s="1"/>
     </row>
-    <row r="710" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -8379,7 +8379,7 @@
       <c r="G710" s="1"/>
       <c r="H710" s="1"/>
     </row>
-    <row r="711" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -8389,7 +8389,7 @@
       <c r="G711" s="1"/>
       <c r="H711" s="1"/>
     </row>
-    <row r="712" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -8399,7 +8399,7 @@
       <c r="G712" s="1"/>
       <c r="H712" s="1"/>
     </row>
-    <row r="713" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -8409,7 +8409,7 @@
       <c r="G713" s="1"/>
       <c r="H713" s="1"/>
     </row>
-    <row r="714" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -8419,7 +8419,7 @@
       <c r="G714" s="1"/>
       <c r="H714" s="1"/>
     </row>
-    <row r="715" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -8429,7 +8429,7 @@
       <c r="G715" s="1"/>
       <c r="H715" s="1"/>
     </row>
-    <row r="716" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -8439,7 +8439,7 @@
       <c r="G716" s="1"/>
       <c r="H716" s="1"/>
     </row>
-    <row r="717" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -8449,7 +8449,7 @@
       <c r="G717" s="1"/>
       <c r="H717" s="1"/>
     </row>
-    <row r="718" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -8459,7 +8459,7 @@
       <c r="G718" s="1"/>
       <c r="H718" s="1"/>
     </row>
-    <row r="719" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -8469,7 +8469,7 @@
       <c r="G719" s="1"/>
       <c r="H719" s="1"/>
     </row>
-    <row r="720" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -8479,7 +8479,7 @@
       <c r="G720" s="1"/>
       <c r="H720" s="1"/>
     </row>
-    <row r="721" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -8489,7 +8489,7 @@
       <c r="G721" s="1"/>
       <c r="H721" s="1"/>
     </row>
-    <row r="722" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -8499,7 +8499,7 @@
       <c r="G722" s="1"/>
       <c r="H722" s="1"/>
     </row>
-    <row r="723" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -8509,7 +8509,7 @@
       <c r="G723" s="1"/>
       <c r="H723" s="1"/>
     </row>
-    <row r="724" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -8519,7 +8519,7 @@
       <c r="G724" s="1"/>
       <c r="H724" s="1"/>
     </row>
-    <row r="725" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -8529,7 +8529,7 @@
       <c r="G725" s="1"/>
       <c r="H725" s="1"/>
     </row>
-    <row r="726" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -8539,7 +8539,7 @@
       <c r="G726" s="1"/>
       <c r="H726" s="1"/>
     </row>
-    <row r="727" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -8549,7 +8549,7 @@
       <c r="G727" s="1"/>
       <c r="H727" s="1"/>
     </row>
-    <row r="728" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -8559,7 +8559,7 @@
       <c r="G728" s="1"/>
       <c r="H728" s="1"/>
     </row>
-    <row r="729" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -8569,7 +8569,7 @@
       <c r="G729" s="1"/>
       <c r="H729" s="1"/>
     </row>
-    <row r="730" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -8579,7 +8579,7 @@
       <c r="G730" s="1"/>
       <c r="H730" s="1"/>
     </row>
-    <row r="731" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -8589,7 +8589,7 @@
       <c r="G731" s="1"/>
       <c r="H731" s="1"/>
     </row>
-    <row r="732" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -8599,7 +8599,7 @@
       <c r="G732" s="1"/>
       <c r="H732" s="1"/>
     </row>
-    <row r="733" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -8609,7 +8609,7 @@
       <c r="G733" s="1"/>
       <c r="H733" s="1"/>
     </row>
-    <row r="734" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -8619,7 +8619,7 @@
       <c r="G734" s="1"/>
       <c r="H734" s="1"/>
     </row>
-    <row r="735" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -8629,7 +8629,7 @@
       <c r="G735" s="1"/>
       <c r="H735" s="1"/>
     </row>
-    <row r="736" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -8639,7 +8639,7 @@
       <c r="G736" s="1"/>
       <c r="H736" s="1"/>
     </row>
-    <row r="737" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -8649,7 +8649,7 @@
       <c r="G737" s="1"/>
       <c r="H737" s="1"/>
     </row>
-    <row r="738" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -8659,7 +8659,7 @@
       <c r="G738" s="1"/>
       <c r="H738" s="1"/>
     </row>
-    <row r="739" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -8669,7 +8669,7 @@
       <c r="G739" s="1"/>
       <c r="H739" s="1"/>
     </row>
-    <row r="740" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -8679,7 +8679,7 @@
       <c r="G740" s="1"/>
       <c r="H740" s="1"/>
     </row>
-    <row r="741" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -8689,7 +8689,7 @@
       <c r="G741" s="1"/>
       <c r="H741" s="1"/>
     </row>
-    <row r="742" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -8699,7 +8699,7 @@
       <c r="G742" s="1"/>
       <c r="H742" s="1"/>
     </row>
-    <row r="743" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -8709,7 +8709,7 @@
       <c r="G743" s="1"/>
       <c r="H743" s="1"/>
     </row>
-    <row r="744" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -8719,7 +8719,7 @@
       <c r="G744" s="1"/>
       <c r="H744" s="1"/>
     </row>
-    <row r="745" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -8729,7 +8729,7 @@
       <c r="G745" s="1"/>
       <c r="H745" s="1"/>
     </row>
-    <row r="746" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -8739,7 +8739,7 @@
       <c r="G746" s="1"/>
       <c r="H746" s="1"/>
     </row>
-    <row r="747" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -8749,7 +8749,7 @@
       <c r="G747" s="1"/>
       <c r="H747" s="1"/>
     </row>
-    <row r="748" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -8759,7 +8759,7 @@
       <c r="G748" s="1"/>
       <c r="H748" s="1"/>
     </row>
-    <row r="749" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -8769,7 +8769,7 @@
       <c r="G749" s="1"/>
       <c r="H749" s="1"/>
     </row>
-    <row r="750" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -8779,7 +8779,7 @@
       <c r="G750" s="1"/>
       <c r="H750" s="1"/>
     </row>
-    <row r="751" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -8789,7 +8789,7 @@
       <c r="G751" s="1"/>
       <c r="H751" s="1"/>
     </row>
-    <row r="752" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -8799,7 +8799,7 @@
       <c r="G752" s="1"/>
       <c r="H752" s="1"/>
     </row>
-    <row r="753" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -8809,7 +8809,7 @@
       <c r="G753" s="1"/>
       <c r="H753" s="1"/>
     </row>
-    <row r="754" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -8819,7 +8819,7 @@
       <c r="G754" s="1"/>
       <c r="H754" s="1"/>
     </row>
-    <row r="755" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -8829,7 +8829,7 @@
       <c r="G755" s="1"/>
       <c r="H755" s="1"/>
     </row>
-    <row r="756" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -8839,7 +8839,7 @@
       <c r="G756" s="1"/>
       <c r="H756" s="1"/>
     </row>
-    <row r="757" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -8849,7 +8849,7 @@
       <c r="G757" s="1"/>
       <c r="H757" s="1"/>
     </row>
-    <row r="758" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -8859,7 +8859,7 @@
       <c r="G758" s="1"/>
       <c r="H758" s="1"/>
     </row>
-    <row r="759" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -8869,7 +8869,7 @@
       <c r="G759" s="1"/>
       <c r="H759" s="1"/>
     </row>
-    <row r="760" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -8879,7 +8879,7 @@
       <c r="G760" s="1"/>
       <c r="H760" s="1"/>
     </row>
-    <row r="761" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -8889,7 +8889,7 @@
       <c r="G761" s="1"/>
       <c r="H761" s="1"/>
     </row>
-    <row r="762" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -8899,7 +8899,7 @@
       <c r="G762" s="1"/>
       <c r="H762" s="1"/>
     </row>
-    <row r="763" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -8909,7 +8909,7 @@
       <c r="G763" s="1"/>
       <c r="H763" s="1"/>
     </row>
-    <row r="764" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -8919,7 +8919,7 @@
       <c r="G764" s="1"/>
       <c r="H764" s="1"/>
     </row>
-    <row r="765" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -8929,7 +8929,7 @@
       <c r="G765" s="1"/>
       <c r="H765" s="1"/>
     </row>
-    <row r="766" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -8939,7 +8939,7 @@
       <c r="G766" s="1"/>
       <c r="H766" s="1"/>
     </row>
-    <row r="767" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -8949,7 +8949,7 @@
       <c r="G767" s="1"/>
       <c r="H767" s="1"/>
     </row>
-    <row r="768" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -8959,7 +8959,7 @@
       <c r="G768" s="1"/>
       <c r="H768" s="1"/>
     </row>
-    <row r="769" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -8969,7 +8969,7 @@
       <c r="G769" s="1"/>
       <c r="H769" s="1"/>
     </row>
-    <row r="770" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -8979,7 +8979,7 @@
       <c r="G770" s="1"/>
       <c r="H770" s="1"/>
     </row>
-    <row r="771" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -8989,7 +8989,7 @@
       <c r="G771" s="1"/>
       <c r="H771" s="1"/>
     </row>
-    <row r="772" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -8999,7 +8999,7 @@
       <c r="G772" s="1"/>
       <c r="H772" s="1"/>
     </row>
-    <row r="773" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -9009,7 +9009,7 @@
       <c r="G773" s="1"/>
       <c r="H773" s="1"/>
     </row>
-    <row r="774" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -9019,7 +9019,7 @@
       <c r="G774" s="1"/>
       <c r="H774" s="1"/>
     </row>
-    <row r="775" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -9029,7 +9029,7 @@
       <c r="G775" s="1"/>
       <c r="H775" s="1"/>
     </row>
-    <row r="776" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -9039,7 +9039,7 @@
       <c r="G776" s="1"/>
       <c r="H776" s="1"/>
     </row>
-    <row r="777" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -9049,7 +9049,7 @@
       <c r="G777" s="1"/>
       <c r="H777" s="1"/>
     </row>
-    <row r="778" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -9059,7 +9059,7 @@
       <c r="G778" s="1"/>
       <c r="H778" s="1"/>
     </row>
-    <row r="779" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -9069,7 +9069,7 @@
       <c r="G779" s="1"/>
       <c r="H779" s="1"/>
     </row>
-    <row r="780" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -9079,7 +9079,7 @@
       <c r="G780" s="1"/>
       <c r="H780" s="1"/>
     </row>
-    <row r="781" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -9089,7 +9089,7 @@
       <c r="G781" s="1"/>
       <c r="H781" s="1"/>
     </row>
-    <row r="782" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -9099,7 +9099,7 @@
       <c r="G782" s="1"/>
       <c r="H782" s="1"/>
     </row>
-    <row r="783" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -9109,7 +9109,7 @@
       <c r="G783" s="1"/>
       <c r="H783" s="1"/>
     </row>
-    <row r="784" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -9119,7 +9119,7 @@
       <c r="G784" s="1"/>
       <c r="H784" s="1"/>
     </row>
-    <row r="785" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -9129,7 +9129,7 @@
       <c r="G785" s="1"/>
       <c r="H785" s="1"/>
     </row>
-    <row r="786" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -9139,7 +9139,7 @@
       <c r="G786" s="1"/>
       <c r="H786" s="1"/>
     </row>
-    <row r="787" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -9149,7 +9149,7 @@
       <c r="G787" s="1"/>
       <c r="H787" s="1"/>
     </row>
-    <row r="788" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -9159,7 +9159,7 @@
       <c r="G788" s="1"/>
       <c r="H788" s="1"/>
     </row>
-    <row r="789" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -9169,7 +9169,7 @@
       <c r="G789" s="1"/>
       <c r="H789" s="1"/>
     </row>
-    <row r="790" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -9179,7 +9179,7 @@
       <c r="G790" s="1"/>
       <c r="H790" s="1"/>
     </row>
-    <row r="791" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -9189,7 +9189,7 @@
       <c r="G791" s="1"/>
       <c r="H791" s="1"/>
     </row>
-    <row r="792" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -9199,7 +9199,7 @@
       <c r="G792" s="1"/>
       <c r="H792" s="1"/>
     </row>
-    <row r="793" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -9209,7 +9209,7 @@
       <c r="G793" s="1"/>
       <c r="H793" s="1"/>
     </row>
-    <row r="794" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -9219,7 +9219,7 @@
       <c r="G794" s="1"/>
       <c r="H794" s="1"/>
     </row>
-    <row r="795" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -9229,7 +9229,7 @@
       <c r="G795" s="1"/>
       <c r="H795" s="1"/>
     </row>
-    <row r="796" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -9239,7 +9239,7 @@
       <c r="G796" s="1"/>
       <c r="H796" s="1"/>
     </row>
-    <row r="797" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -9249,7 +9249,7 @@
       <c r="G797" s="1"/>
       <c r="H797" s="1"/>
     </row>
-    <row r="798" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -9259,7 +9259,7 @@
       <c r="G798" s="1"/>
       <c r="H798" s="1"/>
     </row>
-    <row r="799" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -9269,7 +9269,7 @@
       <c r="G799" s="1"/>
       <c r="H799" s="1"/>
     </row>
-    <row r="800" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -9279,7 +9279,7 @@
       <c r="G800" s="1"/>
       <c r="H800" s="1"/>
     </row>
-    <row r="801" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -9289,7 +9289,7 @@
       <c r="G801" s="1"/>
       <c r="H801" s="1"/>
     </row>
-    <row r="802" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -9299,7 +9299,7 @@
       <c r="G802" s="1"/>
       <c r="H802" s="1"/>
     </row>
-    <row r="803" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -9309,7 +9309,7 @@
       <c r="G803" s="1"/>
       <c r="H803" s="1"/>
     </row>
-    <row r="804" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -9319,7 +9319,7 @@
       <c r="G804" s="1"/>
       <c r="H804" s="1"/>
     </row>
-    <row r="805" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -9329,7 +9329,7 @@
       <c r="G805" s="1"/>
       <c r="H805" s="1"/>
     </row>
-    <row r="806" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -9339,7 +9339,7 @@
       <c r="G806" s="1"/>
       <c r="H806" s="1"/>
     </row>
-    <row r="807" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -9349,7 +9349,7 @@
       <c r="G807" s="1"/>
       <c r="H807" s="1"/>
     </row>
-    <row r="808" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -9359,7 +9359,7 @@
       <c r="G808" s="1"/>
       <c r="H808" s="1"/>
     </row>
-    <row r="809" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -9369,7 +9369,7 @@
       <c r="G809" s="1"/>
       <c r="H809" s="1"/>
     </row>
-    <row r="810" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -9379,7 +9379,7 @@
       <c r="G810" s="1"/>
       <c r="H810" s="1"/>
     </row>
-    <row r="811" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -9389,7 +9389,7 @@
       <c r="G811" s="1"/>
       <c r="H811" s="1"/>
     </row>
-    <row r="812" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -9399,7 +9399,7 @@
       <c r="G812" s="1"/>
       <c r="H812" s="1"/>
     </row>
-    <row r="813" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -9409,7 +9409,7 @@
       <c r="G813" s="1"/>
       <c r="H813" s="1"/>
     </row>
-    <row r="814" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -9419,7 +9419,7 @@
       <c r="G814" s="1"/>
       <c r="H814" s="1"/>
     </row>
-    <row r="815" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -9429,7 +9429,7 @@
       <c r="G815" s="1"/>
       <c r="H815" s="1"/>
     </row>
-    <row r="816" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -9439,7 +9439,7 @@
       <c r="G816" s="1"/>
       <c r="H816" s="1"/>
     </row>
-    <row r="817" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -9449,7 +9449,7 @@
       <c r="G817" s="1"/>
       <c r="H817" s="1"/>
     </row>
-    <row r="818" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -9459,7 +9459,7 @@
       <c r="G818" s="1"/>
       <c r="H818" s="1"/>
     </row>
-    <row r="819" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -9469,7 +9469,7 @@
       <c r="G819" s="1"/>
       <c r="H819" s="1"/>
     </row>
-    <row r="820" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -9479,7 +9479,7 @@
       <c r="G820" s="1"/>
       <c r="H820" s="1"/>
     </row>
-    <row r="821" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -9489,7 +9489,7 @@
       <c r="G821" s="1"/>
       <c r="H821" s="1"/>
     </row>
-    <row r="822" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -9499,7 +9499,7 @@
       <c r="G822" s="1"/>
       <c r="H822" s="1"/>
     </row>
-    <row r="823" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -9509,7 +9509,7 @@
       <c r="G823" s="1"/>
       <c r="H823" s="1"/>
     </row>
-    <row r="824" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -9519,7 +9519,7 @@
       <c r="G824" s="1"/>
       <c r="H824" s="1"/>
     </row>
-    <row r="825" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -9529,7 +9529,7 @@
       <c r="G825" s="1"/>
       <c r="H825" s="1"/>
     </row>
-    <row r="826" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -9539,7 +9539,7 @@
       <c r="G826" s="1"/>
       <c r="H826" s="1"/>
     </row>
-    <row r="827" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -9549,7 +9549,7 @@
       <c r="G827" s="1"/>
       <c r="H827" s="1"/>
     </row>
-    <row r="828" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -9559,7 +9559,7 @@
       <c r="G828" s="1"/>
       <c r="H828" s="1"/>
     </row>
-    <row r="829" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -9569,7 +9569,7 @@
       <c r="G829" s="1"/>
       <c r="H829" s="1"/>
     </row>
-    <row r="830" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -9579,7 +9579,7 @@
       <c r="G830" s="1"/>
       <c r="H830" s="1"/>
     </row>
-    <row r="831" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -9589,7 +9589,7 @@
       <c r="G831" s="1"/>
       <c r="H831" s="1"/>
     </row>
-    <row r="832" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -9599,7 +9599,7 @@
       <c r="G832" s="1"/>
       <c r="H832" s="1"/>
     </row>
-    <row r="833" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -9609,7 +9609,7 @@
       <c r="G833" s="1"/>
       <c r="H833" s="1"/>
     </row>
-    <row r="834" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -9619,7 +9619,7 @@
       <c r="G834" s="1"/>
       <c r="H834" s="1"/>
     </row>
-    <row r="835" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -9629,7 +9629,7 @@
       <c r="G835" s="1"/>
       <c r="H835" s="1"/>
     </row>
-    <row r="836" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -9639,7 +9639,7 @@
       <c r="G836" s="1"/>
       <c r="H836" s="1"/>
     </row>
-    <row r="837" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -9649,7 +9649,7 @@
       <c r="G837" s="1"/>
       <c r="H837" s="1"/>
     </row>
-    <row r="838" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -9659,7 +9659,7 @@
       <c r="G838" s="1"/>
       <c r="H838" s="1"/>
     </row>
-    <row r="839" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -9669,7 +9669,7 @@
       <c r="G839" s="1"/>
       <c r="H839" s="1"/>
     </row>
-    <row r="840" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -9679,7 +9679,7 @@
       <c r="G840" s="1"/>
       <c r="H840" s="1"/>
     </row>
-    <row r="841" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -9689,7 +9689,7 @@
       <c r="G841" s="1"/>
       <c r="H841" s="1"/>
     </row>
-    <row r="842" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -9699,7 +9699,7 @@
       <c r="G842" s="1"/>
       <c r="H842" s="1"/>
     </row>
-    <row r="843" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -9709,7 +9709,7 @@
       <c r="G843" s="1"/>
       <c r="H843" s="1"/>
     </row>
-    <row r="844" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -9719,7 +9719,7 @@
       <c r="G844" s="1"/>
       <c r="H844" s="1"/>
     </row>
-    <row r="845" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -9729,7 +9729,7 @@
       <c r="G845" s="1"/>
       <c r="H845" s="1"/>
     </row>
-    <row r="846" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -9739,7 +9739,7 @@
       <c r="G846" s="1"/>
       <c r="H846" s="1"/>
     </row>
-    <row r="847" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -9749,7 +9749,7 @@
       <c r="G847" s="1"/>
       <c r="H847" s="1"/>
     </row>
-    <row r="848" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -9759,7 +9759,7 @@
       <c r="G848" s="1"/>
       <c r="H848" s="1"/>
     </row>
-    <row r="849" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -9769,7 +9769,7 @@
       <c r="G849" s="1"/>
       <c r="H849" s="1"/>
     </row>
-    <row r="850" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -9779,7 +9779,7 @@
       <c r="G850" s="1"/>
       <c r="H850" s="1"/>
     </row>
-    <row r="851" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -9789,7 +9789,7 @@
       <c r="G851" s="1"/>
       <c r="H851" s="1"/>
     </row>
-    <row r="852" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -9799,7 +9799,7 @@
       <c r="G852" s="1"/>
       <c r="H852" s="1"/>
     </row>
-    <row r="853" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -9809,7 +9809,7 @@
       <c r="G853" s="1"/>
       <c r="H853" s="1"/>
     </row>
-    <row r="854" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -9819,7 +9819,7 @@
       <c r="G854" s="1"/>
       <c r="H854" s="1"/>
     </row>
-    <row r="855" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -9829,7 +9829,7 @@
       <c r="G855" s="1"/>
       <c r="H855" s="1"/>
     </row>
-    <row r="856" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -9839,7 +9839,7 @@
       <c r="G856" s="1"/>
       <c r="H856" s="1"/>
     </row>
-    <row r="857" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -9849,7 +9849,7 @@
       <c r="G857" s="1"/>
       <c r="H857" s="1"/>
     </row>
-    <row r="858" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -9859,7 +9859,7 @@
       <c r="G858" s="1"/>
       <c r="H858" s="1"/>
     </row>
-    <row r="859" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -9869,7 +9869,7 @@
       <c r="G859" s="1"/>
       <c r="H859" s="1"/>
     </row>
-    <row r="860" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -9879,7 +9879,7 @@
       <c r="G860" s="1"/>
       <c r="H860" s="1"/>
     </row>
-    <row r="861" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -9889,7 +9889,7 @@
       <c r="G861" s="1"/>
       <c r="H861" s="1"/>
     </row>
-    <row r="862" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -9899,7 +9899,7 @@
       <c r="G862" s="1"/>
       <c r="H862" s="1"/>
     </row>
-    <row r="863" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -9909,7 +9909,7 @@
       <c r="G863" s="1"/>
       <c r="H863" s="1"/>
     </row>
-    <row r="864" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -9919,7 +9919,7 @@
       <c r="G864" s="1"/>
       <c r="H864" s="1"/>
     </row>
-    <row r="865" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -9929,7 +9929,7 @@
       <c r="G865" s="1"/>
       <c r="H865" s="1"/>
     </row>
-    <row r="866" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -9939,7 +9939,7 @@
       <c r="G866" s="1"/>
       <c r="H866" s="1"/>
     </row>
-    <row r="867" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -9949,7 +9949,7 @@
       <c r="G867" s="1"/>
       <c r="H867" s="1"/>
     </row>
-    <row r="868" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -9959,7 +9959,7 @@
       <c r="G868" s="1"/>
       <c r="H868" s="1"/>
     </row>
-    <row r="869" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -9969,7 +9969,7 @@
       <c r="G869" s="1"/>
       <c r="H869" s="1"/>
     </row>
-    <row r="870" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -9979,7 +9979,7 @@
       <c r="G870" s="1"/>
       <c r="H870" s="1"/>
     </row>
-    <row r="871" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -9989,7 +9989,7 @@
       <c r="G871" s="1"/>
       <c r="H871" s="1"/>
     </row>
-    <row r="872" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -9999,7 +9999,7 @@
       <c r="G872" s="1"/>
       <c r="H872" s="1"/>
     </row>
-    <row r="873" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -10009,7 +10009,7 @@
       <c r="G873" s="1"/>
       <c r="H873" s="1"/>
     </row>
-    <row r="874" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -10019,7 +10019,7 @@
       <c r="G874" s="1"/>
       <c r="H874" s="1"/>
     </row>
-    <row r="875" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -10029,7 +10029,7 @@
       <c r="G875" s="1"/>
       <c r="H875" s="1"/>
     </row>
-    <row r="876" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -10039,7 +10039,7 @@
       <c r="G876" s="1"/>
       <c r="H876" s="1"/>
     </row>
-    <row r="877" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -10049,7 +10049,7 @@
       <c r="G877" s="1"/>
       <c r="H877" s="1"/>
     </row>
-    <row r="878" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -10059,7 +10059,7 @@
       <c r="G878" s="1"/>
       <c r="H878" s="1"/>
     </row>
-    <row r="879" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -10069,7 +10069,7 @@
       <c r="G879" s="1"/>
       <c r="H879" s="1"/>
     </row>
-    <row r="880" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -10079,7 +10079,7 @@
       <c r="G880" s="1"/>
       <c r="H880" s="1"/>
     </row>
-    <row r="881" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -10089,7 +10089,7 @@
       <c r="G881" s="1"/>
       <c r="H881" s="1"/>
     </row>
-    <row r="882" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -10099,7 +10099,7 @@
       <c r="G882" s="1"/>
       <c r="H882" s="1"/>
     </row>
-    <row r="883" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -10109,7 +10109,7 @@
       <c r="G883" s="1"/>
       <c r="H883" s="1"/>
     </row>
-    <row r="884" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -10119,7 +10119,7 @@
       <c r="G884" s="1"/>
       <c r="H884" s="1"/>
     </row>
-    <row r="885" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -10129,7 +10129,7 @@
       <c r="G885" s="1"/>
       <c r="H885" s="1"/>
     </row>
-    <row r="886" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -10139,7 +10139,7 @@
       <c r="G886" s="1"/>
       <c r="H886" s="1"/>
     </row>
-    <row r="887" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -10149,7 +10149,7 @@
       <c r="G887" s="1"/>
       <c r="H887" s="1"/>
     </row>
-    <row r="888" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -10159,7 +10159,7 @@
       <c r="G888" s="1"/>
       <c r="H888" s="1"/>
     </row>
-    <row r="889" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -10169,7 +10169,7 @@
       <c r="G889" s="1"/>
       <c r="H889" s="1"/>
     </row>
-    <row r="890" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -10179,7 +10179,7 @@
       <c r="G890" s="1"/>
       <c r="H890" s="1"/>
     </row>
-    <row r="891" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -10189,7 +10189,7 @@
       <c r="G891" s="1"/>
       <c r="H891" s="1"/>
     </row>
-    <row r="892" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -10199,7 +10199,7 @@
       <c r="G892" s="1"/>
       <c r="H892" s="1"/>
     </row>
-    <row r="893" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -10209,7 +10209,7 @@
       <c r="G893" s="1"/>
       <c r="H893" s="1"/>
     </row>
-    <row r="894" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -10219,7 +10219,7 @@
       <c r="G894" s="1"/>
       <c r="H894" s="1"/>
     </row>
-    <row r="895" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -10229,7 +10229,7 @@
       <c r="G895" s="1"/>
       <c r="H895" s="1"/>
     </row>
-    <row r="896" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -10239,7 +10239,7 @@
       <c r="G896" s="1"/>
       <c r="H896" s="1"/>
     </row>
-    <row r="897" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -10249,7 +10249,7 @@
       <c r="G897" s="1"/>
       <c r="H897" s="1"/>
     </row>
-    <row r="898" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -10259,7 +10259,7 @@
       <c r="G898" s="1"/>
       <c r="H898" s="1"/>
     </row>
-    <row r="899" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -10269,7 +10269,7 @@
       <c r="G899" s="1"/>
       <c r="H899" s="1"/>
     </row>
-    <row r="900" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -10279,7 +10279,7 @@
       <c r="G900" s="1"/>
       <c r="H900" s="1"/>
     </row>
-    <row r="901" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -10289,7 +10289,7 @@
       <c r="G901" s="1"/>
       <c r="H901" s="1"/>
     </row>
-    <row r="902" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -10299,7 +10299,7 @@
       <c r="G902" s="1"/>
       <c r="H902" s="1"/>
     </row>
-    <row r="903" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -10309,7 +10309,7 @@
       <c r="G903" s="1"/>
       <c r="H903" s="1"/>
     </row>
-    <row r="904" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -10319,7 +10319,7 @@
       <c r="G904" s="1"/>
       <c r="H904" s="1"/>
     </row>
-    <row r="905" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -10329,7 +10329,7 @@
       <c r="G905" s="1"/>
       <c r="H905" s="1"/>
     </row>
-    <row r="906" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -10339,7 +10339,7 @@
       <c r="G906" s="1"/>
       <c r="H906" s="1"/>
     </row>
-    <row r="907" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -10349,7 +10349,7 @@
       <c r="G907" s="1"/>
       <c r="H907" s="1"/>
     </row>
-    <row r="908" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -10359,7 +10359,7 @@
       <c r="G908" s="1"/>
       <c r="H908" s="1"/>
     </row>
-    <row r="909" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -10369,7 +10369,7 @@
       <c r="G909" s="1"/>
       <c r="H909" s="1"/>
     </row>
-    <row r="910" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -10379,7 +10379,7 @@
       <c r="G910" s="1"/>
       <c r="H910" s="1"/>
     </row>
-    <row r="911" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -10389,7 +10389,7 @@
       <c r="G911" s="1"/>
       <c r="H911" s="1"/>
     </row>
-    <row r="912" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
